--- a/va_facility_data_2025-02-20/Littleton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Littleton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Littleton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Littleton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1eaaad2b9cbe497a9a82866445830320"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R76e6c372cfda476a9bdf99d75cbe5e52"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd574ca7cba4c4846b86c7d97f11f4183"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf08220361f544fff9219e138febfd20f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R60a911641cf14feba77912d0459bd09d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re649798fd92145b6af700a5f1e60d816"/>
   </x:sheets>
 </x:workbook>
 </file>
